--- a/Purdue/MT482.xlsx
+++ b/Purdue/MT482.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PurdueClass\RemNB\Purdue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C8C9B3-E27D-4A11-937E-ACD1A89E7E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB83627D-704B-4C66-97F0-3575ED6B8605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapt1" sheetId="1" r:id="rId1"/>
-    <sheet name="Appendix" sheetId="2" r:id="rId2"/>
+    <sheet name="chpt8" sheetId="3" r:id="rId2"/>
+    <sheet name="chpt9" sheetId="4" r:id="rId3"/>
+    <sheet name="Chpt10" sheetId="5" r:id="rId4"/>
+    <sheet name="Appendix" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="315">
   <si>
     <r>
       <rPr>
@@ -2405,6 +2408,1030 @@
   </si>
   <si>
     <t>Balance of July 28, Year 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BUSINESS SEGMENT DATA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>YEAR 13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>YEAR 9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Revenue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Operating
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Income</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Theme parks and resorts  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Consumer products  </t>
+    </r>
+  </si>
+  <si>
+    <t>Ending September 30</t>
+  </si>
+  <si>
+    <t>(in million)
+Business Segments</t>
+  </si>
+  <si>
+    <t>Film Entertainment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WALT DISNEY COMPANY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Selected Financial Statement and Other Data</t>
+    </r>
+  </si>
+  <si>
+    <t>Year Ending September 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>($ millions except per share data)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Year 13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Income Statement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Revenue  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Investment and interest income </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Income </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(loss) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ron Euro Disney </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Pretax income </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Taxes </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Net Income </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dividends per share  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Balance Sheet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cash </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Receivables  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Inventories  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Other </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Current assets  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Property, plant, and equipment, net  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Other assets  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Current liabilities </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Borrowings </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Other </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">liabilities </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Stockholders' equity </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">liabilities and stockholders' equity </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cash Flow from Operations  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Other Data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Common shares outstanding (millions)  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Closing price, common </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">stock per share  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">INCOME </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>STATEMENT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>For Year Ended December 31 (In millions)</t>
+    </r>
+  </si>
+  <si>
+    <t>20x6</t>
+  </si>
+  <si>
+    <t>20x5</t>
+  </si>
+  <si>
+    <t>20x4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Net sales </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cost of goods sold </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gross profit </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Selling, general, and administrative expenses  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Research and development costs  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Restructuring costs (credits) and other </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Earnings from operations </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Other income (charges)  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Earnings before income taxes </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Provision for income taxes </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Net earnings </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BALANCE SHEET</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>At December 31 (In millions, except share and per share data)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20x6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20x5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Assets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Current assets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cash and cash equivalents </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Receivables. net</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Inventories, net  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Deferred income taxes </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Other current assets  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total current assets  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Property. plant, and equipment, net  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Goodwill, net  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Other long-term assets  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total assets </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Liabilities and shareholders' equity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Current liabilities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Accounts payable and other current liabilities  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Short-term borrowings </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Current portion of long-term debt  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Accrued income taxes  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total current liabilities  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Long-term debt, net of current portion  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Postemployment liabilities  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Other long-term liabilities </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total liabilities  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Shareholders' equity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Common stock, $2.50 par value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>950,000,000 shares authorized: issued 391,292,760 shares in 20x6 and 20x5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">290,929.701 and 290.484266 shares outstanding in 20x6 and 20x5  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Additional paid in capital </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Accumulated other comprehensive loss </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Treasury stock, at cost; 100.363.059 shares in 20x6 and 100.808,494 shares in 20x5  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total shareholders' equity </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total liabilities and shareholders' equity </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FAX CORPORATION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>For Year Ended December 31, Year 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cost of goods sold (excluding depreciation) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Depreciation expense  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Selling and administrative expenses  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Income before taxes  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Income taxes (state and federal)  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Net income </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2415,18 +3442,18 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
-    <numFmt numFmtId="166" formatCode="\$00.000"/>
-    <numFmt numFmtId="167" formatCode="\$0.00"/>
-    <numFmt numFmtId="168" formatCode="\$00.00"/>
-    <numFmt numFmtId="169" formatCode="00.00"/>
-    <numFmt numFmtId="170" formatCode="0.%"/>
-    <numFmt numFmtId="171" formatCode="0."/>
-    <numFmt numFmtId="172" formatCode="000.0"/>
-    <numFmt numFmtId="179" formatCode="\$000.000"/>
-    <numFmt numFmtId="180" formatCode="#0,##0."/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="\$00.000"/>
+    <numFmt numFmtId="166" formatCode="\$0.00"/>
+    <numFmt numFmtId="167" formatCode="\$00.00"/>
+    <numFmt numFmtId="168" formatCode="00.00"/>
+    <numFmt numFmtId="169" formatCode="0.%"/>
+    <numFmt numFmtId="170" formatCode="0."/>
+    <numFmt numFmtId="171" formatCode="000.0"/>
+    <numFmt numFmtId="172" formatCode="\$000.000"/>
+    <numFmt numFmtId="173" formatCode="#0,##0."/>
+    <numFmt numFmtId="174" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2451,6 +3478,11 @@
       <sz val="11.5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2635,7 +3667,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2646,12 +3678,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2663,22 +3698,19 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2687,7 +3719,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2696,10 +3728,7 @@
     <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2734,10 +3763,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2745,6 +3774,9 @@
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2801,6 +3833,55 @@
         <a:xfrm>
           <a:off x="8372475" y="7048500"/>
           <a:ext cx="4161905" cy="1257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>418514</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>170833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D83062-FFA3-2147-8318-49DF1852D2D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="9525000"/>
+          <a:ext cx="4685714" cy="4933333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3559,7 +4640,7 @@
         <v>1.0007757951900698</v>
       </c>
       <c r="C27" s="13">
-        <f t="shared" ref="C27:D27" si="7">SUM(C14,C15,C17)/C20</f>
+        <f t="shared" ref="C27" si="7">SUM(C14,C15,C17)/C20</f>
         <v>1.4285714285714286</v>
       </c>
       <c r="D27" s="13">
@@ -4167,10 +5248,1138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939B4D60-57CC-438E-AEA0-125BC593C945}">
+  <dimension ref="Q12:U56"/>
+  <sheetViews>
+    <sheetView topLeftCell="J27" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24:S56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="17:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q14" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="17:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q15" s="52"/>
+      <c r="R15" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q16" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R16" s="31">
+        <v>3441</v>
+      </c>
+      <c r="S16" s="31">
+        <v>747</v>
+      </c>
+      <c r="T16" s="31">
+        <v>2595</v>
+      </c>
+      <c r="U16" s="31">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="17" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="R17" s="31">
+        <v>3673</v>
+      </c>
+      <c r="S17" s="31">
+        <v>622</v>
+      </c>
+      <c r="T17" s="31">
+        <v>1588</v>
+      </c>
+      <c r="U17" s="31">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="R18" s="31">
+        <v>1415</v>
+      </c>
+      <c r="S18" s="31">
+        <v>355</v>
+      </c>
+      <c r="T18" s="31">
+        <v>411</v>
+      </c>
+      <c r="U18" s="31">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="31">
+        <v>8529</v>
+      </c>
+      <c r="S19" s="31">
+        <v>1724</v>
+      </c>
+      <c r="T19" s="31">
+        <v>4594</v>
+      </c>
+      <c r="U19" s="31">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="24" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="17:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q28" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q29" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="R29" s="31">
+        <v>8529</v>
+      </c>
+      <c r="S29" s="31">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="30" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="31">
+        <v>-6968</v>
+      </c>
+      <c r="S30" s="31">
+        <v>-3484</v>
+      </c>
+    </row>
+    <row r="31" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="31">
+        <v>-158</v>
+      </c>
+      <c r="S31" s="31">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="32" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q32" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="R32" s="31">
+        <v>186</v>
+      </c>
+      <c r="S32" s="31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q33" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="R33" s="31">
+        <v>-515</v>
+      </c>
+      <c r="S33" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q34" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="R34" s="31">
+        <v>1074</v>
+      </c>
+      <c r="S34" s="31">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="35" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q35" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R35" s="31">
+        <v>-403</v>
+      </c>
+      <c r="S35" s="31">
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="R36" s="31">
+        <v>617</v>
+      </c>
+      <c r="S36" s="31">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="37" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R37" s="31">
+        <v>1.23</v>
+      </c>
+      <c r="S37" s="31">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="38" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q38" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="R38" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="S38" s="31">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="39" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q39" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+    </row>
+    <row r="40" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q40" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="R40" s="31">
+        <v>363</v>
+      </c>
+      <c r="S40" s="31">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q41" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="R41" s="31">
+        <v>1390</v>
+      </c>
+      <c r="S41" s="31">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q42" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="R42" s="31">
+        <v>609</v>
+      </c>
+      <c r="S42" s="31">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="43" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q43" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="R43" s="31">
+        <v>1889</v>
+      </c>
+      <c r="S43" s="31">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="44" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q44" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="R44" s="31">
+        <v>4251</v>
+      </c>
+      <c r="S44" s="31">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="45" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q45" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="R45" s="31">
+        <v>5228</v>
+      </c>
+      <c r="S45" s="31">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="46" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q46" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="R46" s="31">
+        <v>2272</v>
+      </c>
+      <c r="S46" s="31">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="47" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R47" s="31">
+        <v>11751</v>
+      </c>
+      <c r="S47" s="31">
+        <v>6657</v>
+      </c>
+    </row>
+    <row r="48" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q48" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="R48" s="31">
+        <v>2821</v>
+      </c>
+      <c r="S48" s="32">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="49" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q49" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="R49" s="31">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="S49" s="31">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="50" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q50" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="R50" s="31">
+        <v>1514</v>
+      </c>
+      <c r="S50" s="31">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="51" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q51" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="R51" s="31">
+        <v>5030</v>
+      </c>
+      <c r="S51" s="31">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="52" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q52" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="R52" s="31">
+        <v>11751</v>
+      </c>
+      <c r="S52" s="31">
+        <v>6657</v>
+      </c>
+    </row>
+    <row r="53" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q53" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="R53" s="31">
+        <v>2145</v>
+      </c>
+      <c r="S53" s="31">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="54" spans="17:19" x14ac:dyDescent="0.25">
+      <c r="Q54" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+    </row>
+    <row r="55" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q55" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R55" s="31">
+        <v>544</v>
+      </c>
+      <c r="S55" s="31">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="56" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q56" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="R56" s="31">
+        <v>32.75</v>
+      </c>
+      <c r="S56" s="31">
+        <v>30.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q14:Q15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E3A65B-FA72-4404-A769-C69AE38F65BB}">
+  <dimension ref="M14:P71"/>
+  <sheetViews>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="U72" sqref="U72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="13:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="M15" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M16" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="N16" s="31">
+        <v>13234</v>
+      </c>
+      <c r="O16" s="31">
+        <v>13994</v>
+      </c>
+      <c r="P16" s="31">
+        <v>14089</v>
+      </c>
+    </row>
+    <row r="17" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M17" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="N17" s="31">
+        <v>8670</v>
+      </c>
+      <c r="O17" s="31">
+        <v>8375</v>
+      </c>
+      <c r="P17" s="31">
+        <v>8086</v>
+      </c>
+    </row>
+    <row r="18" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M18" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="N18" s="31">
+        <v>4564</v>
+      </c>
+      <c r="O18" s="31">
+        <v>5619</v>
+      </c>
+      <c r="P18" s="31">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="19" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="M19" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2781</v>
+      </c>
+      <c r="O19" s="31">
+        <v>2665</v>
+      </c>
+      <c r="P19" s="31">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="20" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="M20" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="N20" s="31">
+        <v>779</v>
+      </c>
+      <c r="O20" s="31">
+        <v>784</v>
+      </c>
+      <c r="P20" s="31">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="21" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="M21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N21" s="31">
+        <v>659</v>
+      </c>
+      <c r="O21" s="31">
+        <v>-44</v>
+      </c>
+      <c r="P21" s="31">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N22" s="31">
+        <v>345</v>
+      </c>
+      <c r="O22" s="31">
+        <v>2214</v>
+      </c>
+      <c r="P22" s="31">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="31">
+        <v>219</v>
+      </c>
+      <c r="O23" s="31">
+        <v>178</v>
+      </c>
+      <c r="P23" s="31">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M24" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="N24" s="31">
+        <v>-18</v>
+      </c>
+      <c r="O24" s="31">
+        <v>96</v>
+      </c>
+      <c r="P24" s="31">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="M25" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="N25" s="31">
+        <v>108</v>
+      </c>
+      <c r="O25" s="31">
+        <v>2132</v>
+      </c>
+      <c r="P25" s="31">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="26" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="M26" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="N26" s="31">
+        <v>32</v>
+      </c>
+      <c r="O26" s="31">
+        <v>725</v>
+      </c>
+      <c r="P26" s="31">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="27" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="N27" s="31">
+        <v>76</v>
+      </c>
+      <c r="O27" s="31">
+        <v>1407</v>
+      </c>
+      <c r="P27" s="31">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="37" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M37" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="13:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="M38" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M39" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M40" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="M41" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="N41" s="31">
+        <v>448</v>
+      </c>
+      <c r="O41" s="31">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M42" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N42" s="31">
+        <v>2337</v>
+      </c>
+      <c r="O42" s="31">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="43" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M43" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="N43" s="31">
+        <v>1137</v>
+      </c>
+      <c r="O43" s="31">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="44" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M44" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="N44" s="31">
+        <v>521</v>
+      </c>
+      <c r="O44" s="31">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="45" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M45" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N45" s="31">
+        <v>240</v>
+      </c>
+      <c r="O45" s="31">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M46" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="N46" s="31">
+        <v>4683</v>
+      </c>
+      <c r="O46" s="31">
+        <v>5491</v>
+      </c>
+    </row>
+    <row r="47" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="M47" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N47" s="31">
+        <v>5659</v>
+      </c>
+      <c r="O47" s="31">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="48" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M48" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N48" s="31">
+        <v>948</v>
+      </c>
+      <c r="O48" s="31">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M49" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N49" s="31">
+        <v>2072</v>
+      </c>
+      <c r="O49" s="31">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M50" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="N50" s="31">
+        <v>13362</v>
+      </c>
+      <c r="O50" s="31">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="51" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="M51" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+    </row>
+    <row r="52" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M52" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+    </row>
+    <row r="53" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="M53" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N53" s="31">
+        <v>3276</v>
+      </c>
+      <c r="O53" s="31">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="54" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M54" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="N54" s="31">
+        <v>1378</v>
+      </c>
+      <c r="O54" s="31">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="55" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="M55" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="N55" s="31">
+        <v>156</v>
+      </c>
+      <c r="O55" s="31">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M56" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N56" s="31">
+        <v>544</v>
+      </c>
+      <c r="O56" s="31">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="57" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M57" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="N57" s="31">
+        <v>5354</v>
+      </c>
+      <c r="O57" s="31">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="58" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="M58" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N58" s="31">
+        <v>1666</v>
+      </c>
+      <c r="O58" s="31">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="59" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M59" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="N59" s="31">
+        <v>2728</v>
+      </c>
+      <c r="O59" s="31">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="60" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M60" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N60" s="31">
+        <v>720</v>
+      </c>
+      <c r="O60" s="31">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="61" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M61" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="N61" s="31">
+        <v>10468</v>
+      </c>
+      <c r="O61" s="31">
+        <v>10784</v>
+      </c>
+    </row>
+    <row r="62" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M62" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+    </row>
+    <row r="63" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="M63" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+    </row>
+    <row r="64" spans="13:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="M64" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="N64" s="31">
+        <v>978</v>
+      </c>
+      <c r="O64" s="31">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M65" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="N65" s="31">
+        <v>849</v>
+      </c>
+      <c r="O65" s="31">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="66" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" s="31">
+        <v>7431</v>
+      </c>
+      <c r="O66" s="31">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="67" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="M67" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="N67" s="31">
+        <v>-597</v>
+      </c>
+      <c r="O67" s="31">
+        <v>-482</v>
+      </c>
+    </row>
+    <row r="68" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M68" s="2"/>
+      <c r="N68" s="31">
+        <v>8661</v>
+      </c>
+      <c r="O68" s="31">
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="69" spans="13:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="M69" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="N69" s="31">
+        <v>-5767</v>
+      </c>
+      <c r="O69" s="31">
+        <v>-5808</v>
+      </c>
+    </row>
+    <row r="70" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M70" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="N70" s="31">
+        <v>2894</v>
+      </c>
+      <c r="O70" s="31">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="71" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="M71" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="N71" s="31">
+        <v>13362</v>
+      </c>
+      <c r="O71" s="31">
+        <v>14212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5C1DBC-A965-4016-8657-397E0554539C}">
+  <dimension ref="N22:P32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N23" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="14:16" x14ac:dyDescent="0.25">
+      <c r="N25" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="O25" s="32"/>
+      <c r="P25" s="31">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="26" spans="14:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="N26" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="O26" s="32"/>
+      <c r="P26" s="31">
+        <v>-550000</v>
+      </c>
+    </row>
+    <row r="27" spans="14:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="N27" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="O27" s="32"/>
+      <c r="P27" s="31">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="28" spans="14:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="N28" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="O28" s="31">
+        <v>30000</v>
+      </c>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" spans="14:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="N29" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="O29" s="31">
+        <v>160</v>
+      </c>
+      <c r="P29" s="31">
+        <v>-190000</v>
+      </c>
+    </row>
+    <row r="30" spans="14:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="N30" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="O30" s="32"/>
+      <c r="P30" s="31">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="31" spans="14:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="N31" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="O31" s="32"/>
+      <c r="P31" s="31">
+        <v>-105600</v>
+      </c>
+    </row>
+    <row r="32" spans="14:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="N32" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="O32" s="32"/>
+      <c r="P32" s="31">
+        <v>114400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D5D353-71B5-4702-B8B7-333384754704}">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
       <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
@@ -4583,7 +6792,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="2"/>
@@ -4591,7 +6800,7 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="4" t="s">
         <v>85</v>
       </c>
@@ -4606,13 +6815,13 @@
       <c r="A30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="31">
         <v>6204.1</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="31">
         <v>6205.8</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="31">
         <v>5672.1</v>
       </c>
     </row>
@@ -4620,21 +6829,21 @@
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <v>4095.5</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="31">
         <v>4258.2</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="31">
         <v>4001.6</v>
       </c>
     </row>
@@ -4642,13 +6851,13 @@
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="31">
         <v>956.2</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="31">
         <v>980.5</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="31">
         <v>818.8</v>
       </c>
     </row>
@@ -4656,13 +6865,13 @@
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="31">
         <v>306.7</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="31">
         <v>290.7</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>252.1</v>
       </c>
     </row>
@@ -4670,13 +6879,13 @@
       <c r="A35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="31">
         <v>56.3</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="31">
         <v>53.7</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="31">
         <v>47.7</v>
       </c>
     </row>
@@ -4684,13 +6893,13 @@
       <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="31">
         <v>116.2</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="31">
         <v>111.6</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <v>94.1</v>
       </c>
     </row>
@@ -4698,13 +6907,13 @@
       <c r="A37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="31">
         <v>-26</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="31">
         <v>-17.600000000000001</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <v>-38.299999999999997</v>
       </c>
     </row>
@@ -4712,13 +6921,13 @@
       <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="31">
         <v>0.8</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="31">
         <v>3.3</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="31">
         <v>19.3</v>
       </c>
     </row>
@@ -4726,13 +6935,13 @@
       <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="31">
         <v>26.2</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="31">
         <v>14.7</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="31">
         <v>32.4</v>
       </c>
     </row>
@@ -4740,13 +6949,13 @@
       <c r="A40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="32">
+      <c r="B40" s="31">
         <v>0</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="31">
         <v>339.1</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="31">
         <v>343</v>
       </c>
     </row>
@@ -4754,13 +6963,13 @@
       <c r="A41" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="31">
         <v>5531.9</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="31">
         <v>6034.2</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="31">
         <v>5570.7</v>
       </c>
     </row>
@@ -4768,13 +6977,13 @@
       <c r="A42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="31">
         <v>672.2</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="31">
         <v>171.6</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="31">
         <v>101.4</v>
       </c>
     </row>
@@ -4782,13 +6991,13 @@
       <c r="A43" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="31">
         <v>2.4</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="31">
         <v>13.5</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="31">
         <v>10.4</v>
       </c>
     </row>
@@ -4796,13 +7005,13 @@
       <c r="A44" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="32">
+      <c r="B44" s="31">
         <v>-7.2</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="31">
         <v>-5.7</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="31">
         <v>-5.3</v>
       </c>
     </row>
@@ -4810,13 +7019,13 @@
       <c r="A45" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="31">
         <v>667.4</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="31">
         <v>179.4</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="31">
         <v>106.5</v>
       </c>
     </row>
@@ -4824,13 +7033,13 @@
       <c r="A46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="31">
         <v>265.89999999999998</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="31">
         <v>175</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="31">
         <v>93.4</v>
       </c>
     </row>
@@ -4838,13 +7047,13 @@
       <c r="A47" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="32">
+      <c r="B47" s="31">
         <v>401.5</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="31">
         <v>13.1</v>
       </c>
     </row>
@@ -4852,13 +7061,13 @@
       <c r="A48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="32">
+      <c r="B48" s="31">
         <v>3.16</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="31">
         <v>0.03</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="31">
         <v>0.1</v>
       </c>
     </row>
@@ -4866,13 +7075,13 @@
       <c r="A49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="31">
         <v>127</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="31">
         <v>129.6</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="31">
         <v>129.30000000000001</v>
       </c>
     </row>
@@ -4880,7 +7089,7 @@
       <c r="A53" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>109</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -4898,10 +7107,10 @@
       <c r="A55" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="31">
         <v>178.9</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="31">
         <v>80.7</v>
       </c>
     </row>
@@ -4909,10 +7118,10 @@
       <c r="A56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="32">
+      <c r="B56" s="31">
         <v>12.8</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="31">
         <v>22.5</v>
       </c>
     </row>
@@ -4920,10 +7129,10 @@
       <c r="A57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="31">
         <v>527.4</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="31">
         <v>624.5</v>
       </c>
     </row>
@@ -4931,10 +7140,10 @@
       <c r="A58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="32">
+      <c r="B58" s="31">
         <v>706.7</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="31">
         <v>819.8</v>
       </c>
     </row>
@@ -4942,21 +7151,21 @@
       <c r="A59" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="32">
+      <c r="B59" s="31">
         <v>92.7</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="31">
         <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B60" s="31">
         <v>1518.5</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="31">
         <v>1665.5</v>
       </c>
     </row>
@@ -4964,10 +7173,10 @@
       <c r="A61" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="31">
         <v>1790.4</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="31">
         <v>1717.7</v>
       </c>
     </row>
@@ -4975,10 +7184,10 @@
       <c r="A62" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="31">
         <v>435.5</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="31">
         <v>383.4</v>
       </c>
     </row>
@@ -4986,10 +7195,10 @@
       <c r="A63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B63" s="31">
         <v>404.6</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="31">
         <v>349</v>
       </c>
     </row>
@@ -4997,10 +7206,10 @@
       <c r="A64" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="32">
+      <c r="B64" s="31">
         <v>4149</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="31">
         <v>54115.6</v>
       </c>
     </row>
@@ -5008,17 +7217,17 @@
       <c r="A65" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="32">
+      <c r="B66" s="31">
         <v>282.2</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="31">
         <v>202.3</v>
       </c>
     </row>
@@ -5026,10 +7235,10 @@
       <c r="A67" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="31">
         <v>482.4</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C67" s="31">
         <v>525.20000000000005</v>
       </c>
     </row>
@@ -5037,10 +7246,10 @@
       <c r="A68" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="32">
+      <c r="B68" s="31">
         <v>408.7</v>
       </c>
-      <c r="C68" s="32">
+      <c r="C68" s="31">
         <v>491.9</v>
       </c>
     </row>
@@ -5048,10 +7257,10 @@
       <c r="A69" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="32">
+      <c r="B69" s="31">
         <v>37</v>
       </c>
-      <c r="C69" s="32">
+      <c r="C69" s="31">
         <v>32.299999999999997</v>
       </c>
     </row>
@@ -5059,10 +7268,10 @@
       <c r="A70" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="32">
+      <c r="B70" s="31">
         <v>67.7</v>
       </c>
-      <c r="C70" s="32">
+      <c r="C70" s="31">
         <v>46.4</v>
       </c>
     </row>
@@ -5070,10 +7279,10 @@
       <c r="A71" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="32">
+      <c r="B71" s="31">
         <v>1278</v>
       </c>
-      <c r="C71" s="32">
+      <c r="C71" s="31">
         <v>1298.0999999999999</v>
       </c>
     </row>
@@ -5081,10 +7290,10 @@
       <c r="A72" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="32">
+      <c r="B72" s="31">
         <v>772.6</v>
       </c>
-      <c r="C72" s="32">
+      <c r="C72" s="31">
         <v>805.8</v>
       </c>
     </row>
@@ -5092,10 +7301,10 @@
       <c r="A73" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="31">
         <v>305</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="31">
         <v>319.89999999999998</v>
       </c>
     </row>
@@ -5103,24 +7312,24 @@
       <c r="A74" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
     </row>
     <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="32">
+      <c r="B76" s="31">
         <v>20.3</v>
       </c>
-      <c r="C76" s="32">
+      <c r="C76" s="31">
         <v>20.3</v>
       </c>
     </row>
@@ -5128,10 +7337,10 @@
       <c r="A77" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="32">
+      <c r="B77" s="31">
         <v>107.3</v>
       </c>
-      <c r="C77" s="32">
+      <c r="C77" s="31">
         <v>61.9</v>
       </c>
     </row>
@@ -5139,10 +7348,10 @@
       <c r="A78" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="32">
+      <c r="B78" s="31">
         <v>1912.6</v>
       </c>
-      <c r="C78" s="32">
+      <c r="C78" s="31">
         <v>1653.3</v>
       </c>
     </row>
@@ -5150,10 +7359,10 @@
       <c r="A79" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="32">
+      <c r="B79" s="31">
         <v>-270.39999999999998</v>
       </c>
-      <c r="C79" s="32">
+      <c r="C79" s="31">
         <v>-107.2</v>
       </c>
     </row>
@@ -5161,10 +7370,10 @@
       <c r="A80" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="32">
+      <c r="B80" s="31">
         <v>23.6</v>
       </c>
-      <c r="C80" s="32">
+      <c r="C80" s="31">
         <v>63.5</v>
       </c>
     </row>
@@ -5172,10 +7381,10 @@
       <c r="A81" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="32">
+      <c r="B81" s="31">
         <v>1793.4</v>
       </c>
-      <c r="C81" s="32">
+      <c r="C81" s="31">
         <v>1691.8</v>
       </c>
     </row>
@@ -5183,10 +7392,10 @@
       <c r="A82" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="32">
+      <c r="B82" s="31">
         <v>4149</v>
       </c>
-      <c r="C82" s="32">
+      <c r="C82" s="31">
         <v>4115.6000000000004</v>
       </c>
     </row>
@@ -5202,13 +7411,13 @@
       <c r="A86" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="31" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5216,21 +7425,21 @@
       <c r="A87" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="32">
+      <c r="B88" s="31">
         <v>401.5</v>
       </c>
-      <c r="C88" s="32">
+      <c r="C88" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D88" s="32">
+      <c r="D88" s="31">
         <v>13.1</v>
       </c>
     </row>
@@ -5238,21 +7447,21 @@
       <c r="A89" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B90" s="32">
+      <c r="B90" s="31">
         <v>208.6</v>
       </c>
-      <c r="C90" s="32">
+      <c r="C90" s="31">
         <v>200.9</v>
       </c>
-      <c r="D90" s="32">
+      <c r="D90" s="31">
         <v>192.3</v>
       </c>
     </row>
@@ -5260,11 +7469,11 @@
       <c r="A91" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="32">
+      <c r="B91" s="32"/>
+      <c r="C91" s="31">
         <v>339.1</v>
       </c>
-      <c r="D91" s="32">
+      <c r="D91" s="31">
         <v>343</v>
       </c>
     </row>
@@ -5272,13 +7481,13 @@
       <c r="A92" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="32">
+      <c r="B92" s="31">
         <v>35.5</v>
       </c>
-      <c r="C92" s="32">
+      <c r="C92" s="31">
         <v>3.9</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D92" s="31">
         <v>-67.8</v>
       </c>
     </row>
@@ -5286,13 +7495,13 @@
       <c r="A93" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B93" s="32">
+      <c r="B93" s="31">
         <v>63.2</v>
       </c>
-      <c r="C93" s="32">
+      <c r="C93" s="31">
         <v>18.600000000000001</v>
       </c>
-      <c r="D93" s="32">
+      <c r="D93" s="31">
         <v>37.299999999999997</v>
       </c>
     </row>
@@ -5300,13 +7509,13 @@
       <c r="A94" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B94" s="32">
+      <c r="B94" s="31">
         <v>17.100000000000001</v>
       </c>
-      <c r="C94" s="32">
+      <c r="C94" s="31">
         <v>-60.4</v>
       </c>
-      <c r="D94" s="32">
+      <c r="D94" s="31">
         <v>-46.8</v>
       </c>
     </row>
@@ -5314,13 +7523,13 @@
       <c r="A95" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B95" s="32">
+      <c r="B95" s="31">
         <v>48.7</v>
       </c>
-      <c r="C95" s="32">
+      <c r="C95" s="31">
         <v>10.7</v>
       </c>
-      <c r="D95" s="32">
+      <c r="D95" s="31">
         <v>-113.2</v>
       </c>
     </row>
@@ -5328,13 +7537,13 @@
       <c r="A96" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B96" s="32">
+      <c r="B96" s="31">
         <v>30.6</v>
       </c>
-      <c r="C96" s="32">
+      <c r="C96" s="31">
         <v>-68.8</v>
       </c>
-      <c r="D96" s="32">
+      <c r="D96" s="31">
         <v>-0.6</v>
       </c>
     </row>
@@ -5342,13 +7551,13 @@
       <c r="A97" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="32">
+      <c r="B97" s="31">
         <v>805.2</v>
       </c>
-      <c r="C97" s="32">
+      <c r="C97" s="31">
         <v>448.4</v>
       </c>
-      <c r="D97" s="32">
+      <c r="D97" s="31">
         <v>357.3</v>
       </c>
     </row>
@@ -5356,21 +7565,21 @@
       <c r="A98" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B99" s="32">
+      <c r="B99" s="31">
         <v>-361.1</v>
       </c>
-      <c r="C99" s="32">
+      <c r="C99" s="31">
         <v>-387.6</v>
       </c>
-      <c r="D99" s="32">
+      <c r="D99" s="31">
         <v>-284.10000000000002</v>
       </c>
     </row>
@@ -5378,13 +7587,13 @@
       <c r="A100" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B100" s="32">
+      <c r="B100" s="31">
         <v>43.2</v>
       </c>
-      <c r="C100" s="32">
+      <c r="C100" s="31">
         <v>34.9</v>
       </c>
-      <c r="D100" s="32">
+      <c r="D100" s="31">
         <v>39.799999999999997</v>
       </c>
     </row>
@@ -5392,13 +7601,13 @@
       <c r="A101" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B101" s="32">
+      <c r="B101" s="31">
         <v>-180.1</v>
       </c>
-      <c r="C101" s="32">
+      <c r="C101" s="31">
         <v>-41.6</v>
       </c>
-      <c r="D101" s="32">
+      <c r="D101" s="31">
         <v>-135.80000000000001</v>
       </c>
     </row>
@@ -5406,13 +7615,13 @@
       <c r="A102" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B102" s="32">
+      <c r="B102" s="31">
         <v>67.400000000000006</v>
       </c>
-      <c r="C102" s="32">
+      <c r="C102" s="31">
         <v>21.7</v>
       </c>
-      <c r="D102" s="32">
+      <c r="D102" s="31">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -5420,13 +7629,13 @@
       <c r="A103" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B103" s="32">
+      <c r="B103" s="31">
         <v>-57.8</v>
       </c>
-      <c r="C103" s="32">
+      <c r="C103" s="31">
         <v>-18.600000000000001</v>
       </c>
-      <c r="D103" s="32">
+      <c r="D103" s="31">
         <v>-107</v>
       </c>
     </row>
@@ -5434,13 +7643,13 @@
       <c r="A104" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B104" s="32">
+      <c r="B104" s="31">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C104" s="32">
+      <c r="C104" s="31">
         <v>3.7</v>
       </c>
-      <c r="D104" s="32">
+      <c r="D104" s="31">
         <v>9</v>
       </c>
     </row>
@@ -5448,13 +7657,13 @@
       <c r="A105" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B105" s="32">
+      <c r="B105" s="31">
         <v>-478.7</v>
       </c>
-      <c r="C105" s="32">
+      <c r="C105" s="31">
         <v>-387.5</v>
       </c>
-      <c r="D105" s="32">
+      <c r="D105" s="31">
         <v>-473.2</v>
       </c>
     </row>
@@ -5462,21 +7671,21 @@
       <c r="A106" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B107" s="32">
+      <c r="B107" s="31">
         <v>402.8</v>
       </c>
-      <c r="C107" s="32">
+      <c r="C107" s="31">
         <v>12.6</v>
       </c>
-      <c r="D107" s="32">
+      <c r="D107" s="31">
         <v>126.5</v>
       </c>
     </row>
@@ -5484,13 +7693,13 @@
       <c r="A108" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B108" s="32">
+      <c r="B108" s="31">
         <v>-129.9</v>
       </c>
-      <c r="C108" s="32">
+      <c r="C108" s="31">
         <v>-22.5</v>
       </c>
-      <c r="D108" s="32">
+      <c r="D108" s="31">
         <v>-53.6</v>
       </c>
     </row>
@@ -5498,13 +7707,13 @@
       <c r="A109" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B109" s="32">
+      <c r="B109" s="31">
         <v>-137.9</v>
       </c>
-      <c r="C109" s="32">
+      <c r="C109" s="31">
         <v>-2.7</v>
       </c>
-      <c r="D109" s="32">
+      <c r="D109" s="31">
         <v>108.2</v>
       </c>
     </row>
@@ -5512,13 +7721,13 @@
       <c r="A110" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B110" s="32">
+      <c r="B110" s="31">
         <v>117.3</v>
       </c>
-      <c r="C110" s="32">
+      <c r="C110" s="31">
         <v>153.69999999999999</v>
       </c>
-      <c r="D110" s="32">
+      <c r="D110" s="31">
         <v>227.1</v>
       </c>
     </row>
@@ -5526,13 +7735,13 @@
       <c r="A111" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B111" s="32">
+      <c r="B111" s="31">
         <v>-206.4</v>
       </c>
-      <c r="C111" s="32">
+      <c r="C111" s="31">
         <v>-89.8</v>
       </c>
-      <c r="D111" s="32">
+      <c r="D111" s="31">
         <v>-192.3</v>
       </c>
     </row>
@@ -5540,13 +7749,13 @@
       <c r="A112" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B112" s="32">
+      <c r="B112" s="31">
         <v>-137.5</v>
       </c>
-      <c r="C112" s="32">
+      <c r="C112" s="31">
         <v>-124.3</v>
       </c>
-      <c r="D112" s="32">
+      <c r="D112" s="31">
         <v>-86.7</v>
       </c>
     </row>
@@ -5554,13 +7763,13 @@
       <c r="A113" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B113" s="32">
+      <c r="B113" s="31">
         <v>-175.6</v>
       </c>
-      <c r="C113" s="32">
+      <c r="C113" s="31">
         <v>-41.1</v>
       </c>
-      <c r="D113" s="32">
+      <c r="D113" s="31">
         <v>-8.1</v>
       </c>
     </row>
@@ -5568,13 +7777,13 @@
       <c r="A114" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B114" s="32">
+      <c r="B114" s="31">
         <v>47.7</v>
       </c>
-      <c r="C114" s="32">
+      <c r="C114" s="31">
         <v>12.4</v>
       </c>
-      <c r="D114" s="32">
+      <c r="D114" s="31">
         <v>18.5</v>
       </c>
     </row>
@@ -5582,13 +7791,13 @@
       <c r="A115" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B115" s="32">
+      <c r="B115" s="31">
         <v>-0.1</v>
       </c>
-      <c r="C115" s="32">
+      <c r="C115" s="31">
         <v>-0.1</v>
       </c>
-      <c r="D115" s="32">
+      <c r="D115" s="31">
         <v>23.5</v>
       </c>
     </row>
@@ -5596,13 +7805,13 @@
       <c r="A116" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B116" s="32">
+      <c r="B116" s="31">
         <v>-219.6</v>
       </c>
-      <c r="C116" s="32">
+      <c r="C116" s="31">
         <v>-101.8</v>
       </c>
-      <c r="D116" s="32">
+      <c r="D116" s="31">
         <v>163.1</v>
       </c>
     </row>
@@ -5610,13 +7819,13 @@
       <c r="A117" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B117" s="32">
+      <c r="B117" s="31">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="C117" s="32">
+      <c r="C117" s="31">
         <v>0.7</v>
       </c>
-      <c r="D117" s="32">
+      <c r="D117" s="31">
         <v>-12.1</v>
       </c>
     </row>
@@ -5624,13 +7833,13 @@
       <c r="A118" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B118" s="32">
+      <c r="B118" s="31">
         <v>98.2</v>
       </c>
-      <c r="C118" s="32">
+      <c r="C118" s="31">
         <v>-40.200000000000003</v>
       </c>
-      <c r="D118" s="32">
+      <c r="D118" s="31">
         <v>35.1</v>
       </c>
     </row>
@@ -5638,13 +7847,13 @@
       <c r="A119" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B119" s="32">
+      <c r="B119" s="31">
         <v>80.7</v>
       </c>
-      <c r="C119" s="32">
+      <c r="C119" s="31">
         <v>120.9</v>
       </c>
-      <c r="D119" s="32">
+      <c r="D119" s="31">
         <v>85.8</v>
       </c>
     </row>
@@ -5652,597 +7861,597 @@
       <c r="A120" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B120" s="32">
+      <c r="B120" s="31">
         <v>5178.8999999999996</v>
       </c>
-      <c r="C120" s="32">
+      <c r="C120" s="31">
         <v>580.70000000000005</v>
       </c>
-      <c r="D120" s="32">
+      <c r="D120" s="31">
         <v>120.9</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A123" s="36" t="s">
+      <c r="A123" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C123" s="37" t="s">
+      <c r="C123" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D123" s="37" t="s">
+      <c r="D123" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E123" s="37" t="s">
+      <c r="E123" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="F123" s="37" t="s">
+      <c r="F123" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G123" s="37" t="s">
+      <c r="G123" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="H123" s="38" t="s">
+      <c r="H123" s="37" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
+      <c r="A124" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="B124" s="44"/>
-      <c r="C124" s="44">
+      <c r="B124" s="43"/>
+      <c r="C124" s="43">
         <v>20.3</v>
       </c>
-      <c r="D124" s="44">
+      <c r="D124" s="43">
         <v>42.3</v>
       </c>
-      <c r="E124" s="44">
+      <c r="E124" s="43">
         <v>1879.1</v>
       </c>
-      <c r="F124" s="44">
+      <c r="F124" s="43">
         <v>-75.2</v>
       </c>
-      <c r="G124" s="44">
+      <c r="G124" s="43">
         <v>28.5</v>
       </c>
-      <c r="H124" s="45">
+      <c r="H124" s="44">
         <v>1895</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="39" t="s">
+      <c r="A125" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="B125" s="44"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44">
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43">
         <v>13.1</v>
       </c>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="45">
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="44">
         <v>13.1</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
+      <c r="A126" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44">
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43">
         <v>-116.4</v>
       </c>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="45">
+      <c r="F126" s="43"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="44">
         <v>-116.4</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="39" t="s">
+      <c r="A127" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="44">
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43">
         <v>-8.1</v>
       </c>
-      <c r="G127" s="44"/>
-      <c r="H127" s="45">
+      <c r="G127" s="43"/>
+      <c r="H127" s="44">
         <v>-8.1</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="s">
+      <c r="A128" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="B128" s="44"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="45"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="44"/>
     </row>
     <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="39" t="s">
+      <c r="A129" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="B129" s="44"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="44">
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43">
         <v>8.5</v>
       </c>
-      <c r="E129" s="44"/>
-      <c r="F129" s="44">
+      <c r="E129" s="43"/>
+      <c r="F129" s="43">
         <v>12.6</v>
       </c>
-      <c r="G129" s="44"/>
-      <c r="H129" s="45">
+      <c r="G129" s="43"/>
+      <c r="H129" s="44">
         <v>21.1</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="39" t="s">
+      <c r="A130" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="B130" s="44"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44">
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="43">
         <v>-26.4</v>
       </c>
-      <c r="H130" s="45">
+      <c r="H130" s="44">
         <v>-26.4</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="39" t="s">
+      <c r="A131" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B131" s="44"/>
-      <c r="C131" s="44">
+      <c r="B131" s="43"/>
+      <c r="C131" s="43">
         <v>20.3</v>
       </c>
-      <c r="D131" s="44">
+      <c r="D131" s="43">
         <v>50.8</v>
       </c>
-      <c r="E131" s="44">
+      <c r="E131" s="43">
         <v>1775.8</v>
       </c>
-      <c r="F131" s="44">
+      <c r="F131" s="43">
         <v>-70.7</v>
       </c>
-      <c r="G131" s="44">
+      <c r="G131" s="43">
         <v>2.1</v>
       </c>
-      <c r="H131" s="45">
+      <c r="H131" s="44">
         <v>1778.3</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="39" t="s">
+      <c r="A132" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="B132" s="44"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44">
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="45">
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="44">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="39" t="s">
+      <c r="A133" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B133" s="44"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44">
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43">
         <v>-126.9</v>
       </c>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="45">
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="44">
         <v>-126.9</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="39" t="s">
+      <c r="A134" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="B134" s="44"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44">
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43">
         <v>-41.1</v>
       </c>
-      <c r="G134" s="44"/>
-      <c r="H134" s="45">
+      <c r="G134" s="43"/>
+      <c r="H134" s="44">
         <v>-41.1</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="B135" s="44"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="45"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="44"/>
     </row>
     <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="39" t="s">
+      <c r="A136" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B136" s="44"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="44">
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43">
         <v>11.1</v>
       </c>
-      <c r="E136" s="44"/>
-      <c r="F136" s="44">
+      <c r="E136" s="43"/>
+      <c r="F136" s="43">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G136" s="44"/>
-      <c r="H136" s="45">
+      <c r="G136" s="43"/>
+      <c r="H136" s="44">
         <v>15.7</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="39" t="s">
+      <c r="A137" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="B137" s="44"/>
-      <c r="C137" s="44"/>
-      <c r="D137" s="44"/>
-      <c r="E137" s="44"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="44">
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="43">
         <v>61.4</v>
       </c>
-      <c r="H137" s="45">
+      <c r="H137" s="44">
         <v>61.4</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="39" t="s">
+      <c r="A138" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B138" s="44"/>
-      <c r="C138" s="44">
+      <c r="B138" s="43"/>
+      <c r="C138" s="43">
         <v>20.3</v>
       </c>
-      <c r="D138" s="44">
+      <c r="D138" s="43">
         <v>61.9</v>
       </c>
-      <c r="E138" s="44">
+      <c r="E138" s="43">
         <v>1653.3</v>
       </c>
-      <c r="F138" s="44">
+      <c r="F138" s="43">
         <v>-107.2</v>
       </c>
-      <c r="G138" s="44">
+      <c r="G138" s="43">
         <v>63.5</v>
       </c>
-      <c r="H138" s="45">
+      <c r="H138" s="44">
         <v>1691.8</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="39" t="s">
+      <c r="A139" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="B139" s="44"/>
-      <c r="C139" s="44"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="44">
+      <c r="B139" s="43"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="43">
         <v>401.5</v>
       </c>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="45">
+      <c r="F139" s="43"/>
+      <c r="G139" s="43"/>
+      <c r="H139" s="44">
         <v>401.5</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="39" t="s">
+      <c r="A140" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="B140" s="44"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="44"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="45"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="44"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="39" t="s">
+      <c r="A141" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="B141" s="44"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="44"/>
-      <c r="E141" s="44">
+      <c r="B141" s="43"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="43">
         <v>-142.19999999999999</v>
       </c>
-      <c r="F141" s="44"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="45">
+      <c r="F141" s="43"/>
+      <c r="G141" s="43"/>
+      <c r="H141" s="44">
         <v>-142.19999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="39" t="s">
+      <c r="A142" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="B142" s="44"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="44"/>
-      <c r="E142" s="44"/>
-      <c r="F142" s="44">
+      <c r="B142" s="43"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43">
         <v>-175.6</v>
       </c>
-      <c r="G142" s="44"/>
-      <c r="H142" s="45">
+      <c r="G142" s="43"/>
+      <c r="H142" s="44">
         <v>-175.6</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="39" t="s">
+      <c r="A143" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="B143" s="44"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="44"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="45"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="43"/>
+      <c r="F143" s="43"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="44"/>
     </row>
     <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="39" t="s">
+      <c r="A144" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="B144" s="44"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="44">
+      <c r="B144" s="43"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="43">
         <v>45.4</v>
       </c>
-      <c r="E144" s="44"/>
-      <c r="F144" s="44">
+      <c r="E144" s="43"/>
+      <c r="F144" s="43">
         <v>12.4</v>
       </c>
-      <c r="G144" s="44"/>
-      <c r="H144" s="45">
+      <c r="G144" s="43"/>
+      <c r="H144" s="44">
         <v>57.8</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="39" t="s">
+      <c r="A145" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="B145" s="44"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="44"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="44">
+      <c r="B145" s="43"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="43">
         <v>-29.9</v>
       </c>
-      <c r="H145" s="45">
+      <c r="H145" s="44">
         <v>-29.9</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="39" t="s">
+      <c r="A146" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="B146" s="44"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="44"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="44">
+      <c r="B146" s="43"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="43">
         <v>-10</v>
       </c>
-      <c r="H146" s="45">
+      <c r="H146" s="44">
         <v>-10</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="40" t="s">
+      <c r="A147" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="B147" s="46"/>
-      <c r="C147" s="46">
+      <c r="B147" s="45"/>
+      <c r="C147" s="45">
         <v>20.3</v>
       </c>
-      <c r="D147" s="46">
+      <c r="D147" s="45">
         <v>107.3</v>
       </c>
-      <c r="E147" s="46">
+      <c r="E147" s="45">
         <v>1912.6</v>
       </c>
-      <c r="F147" s="46">
+      <c r="F147" s="45">
         <v>-270.39999999999998</v>
       </c>
-      <c r="G147" s="46">
+      <c r="G147" s="45">
         <v>23.6</v>
       </c>
-      <c r="H147" s="47">
+      <c r="H147" s="46">
         <v>1793.4</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="41" t="s">
+      <c r="A149" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="43"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="42"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="39" t="s">
+      <c r="A150" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C150" s="48" t="s">
+      <c r="C150" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="D150" s="49" t="s">
+      <c r="D150" s="48" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="39" t="s">
+      <c r="A151" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="B151" s="32" t="s">
+      <c r="B151" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="C151" s="48">
+      <c r="C151" s="47">
         <v>129038.6</v>
       </c>
-      <c r="D151" s="49">
+      <c r="D151" s="48">
         <v>6584.1</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="39" t="s">
+      <c r="A152" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="33"/>
-      <c r="C152" s="48">
+      <c r="B152" s="32"/>
+      <c r="C152" s="47">
         <v>-250.6</v>
       </c>
-      <c r="D152" s="49">
+      <c r="D152" s="48">
         <v>250.6</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="39" t="s">
+      <c r="A153" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="B153" s="33"/>
-      <c r="C153" s="48">
+      <c r="B153" s="32"/>
+      <c r="C153" s="47">
         <v>790.6</v>
       </c>
-      <c r="D153" s="49">
+      <c r="D153" s="48">
         <v>-790.6</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="39" t="s">
+      <c r="A154" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="B154" s="32">
+      <c r="B154" s="31">
         <v>135622.70000000001</v>
       </c>
-      <c r="C154" s="48">
+      <c r="C154" s="47">
         <v>129578.6</v>
       </c>
-      <c r="D154" s="49">
+      <c r="D154" s="48">
         <v>6044.1</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="39" t="s">
+      <c r="A155" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="B155" s="33"/>
-      <c r="C155" s="48">
+      <c r="B155" s="32"/>
+      <c r="C155" s="47">
         <v>-833</v>
       </c>
-      <c r="D155" s="49">
+      <c r="D155" s="48">
         <v>833</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="39" t="s">
+      <c r="A156" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="B156" s="33"/>
-      <c r="C156" s="48">
+      <c r="B156" s="32"/>
+      <c r="C156" s="47">
         <v>523.4</v>
       </c>
-      <c r="D156" s="49">
+      <c r="D156" s="48">
         <v>-523</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="39" t="s">
+      <c r="A157" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B157" s="32">
+      <c r="B157" s="31">
         <v>135622.70000000001</v>
       </c>
-      <c r="C157" s="48">
+      <c r="C157" s="47">
         <v>129269</v>
       </c>
-      <c r="D157" s="49">
+      <c r="D157" s="48">
         <v>6353.7</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="39" t="s">
+      <c r="A158" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="B158" s="33"/>
-      <c r="C158" s="48">
+      <c r="B158" s="32"/>
+      <c r="C158" s="47">
         <v>-3395.4</v>
       </c>
-      <c r="D158" s="49">
+      <c r="D158" s="48">
         <v>3395.4</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="39" t="s">
+      <c r="A159" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="48">
+      <c r="B159" s="32"/>
+      <c r="C159" s="47">
         <v>1130.2</v>
       </c>
-      <c r="D159" s="49">
+      <c r="D159" s="48">
         <v>-1130.2</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="40" t="s">
+      <c r="A160" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="B160" s="50">
+      <c r="B160" s="49">
         <v>135622</v>
       </c>
-      <c r="C160" s="51">
+      <c r="C160" s="50">
         <v>127003.8</v>
       </c>
-      <c r="D160" s="52">
+      <c r="D160" s="51">
         <v>8618.9</v>
       </c>
     </row>

--- a/Purdue/MT482.xlsx
+++ b/Purdue/MT482.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PurdueClass\RemNB\Purdue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hain2/Desktop/GitHub/Notes/RemNB/Purdue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB83627D-704B-4C66-97F0-3575ED6B8605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7F7B01-8259-C241-96C7-EB41644BBC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17480" yWindow="760" windowWidth="17080" windowHeight="10580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapt1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="chpt9" sheetId="4" r:id="rId3"/>
     <sheet name="Chpt10" sheetId="5" r:id="rId4"/>
     <sheet name="Appendix" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3893,6 +3894,103 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6145" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F281C45-36C3-0ADA-432D-5521ECB87D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="1714500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9CD5EF8-FF28-BAF8-156F-23CF43C7E21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="292100"/>
+          <a:ext cx="7772400" cy="3651526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4162,36 +4260,36 @@
       <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>2006</v>
@@ -4206,7 +4304,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4225,7 +4323,7 @@
         <v>0.34579439252336441</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -4244,7 +4342,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4263,7 +4361,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4282,7 +4380,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4301,12 +4399,12 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3">
         <v>2006</v>
@@ -4327,7 +4425,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -4353,7 +4451,7 @@
         <v>9.8791946308724829E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -4379,7 +4477,7 @@
         <v>0.13208053691275168</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -4405,7 +4503,7 @@
         <v>0.14228187919463087</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
@@ -4431,7 +4529,7 @@
         <v>1.0738255033557046E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -4458,7 +4556,7 @@
       </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -4484,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -4510,7 +4608,7 @@
         <v>0.13221476510067115</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -4536,7 +4634,7 @@
         <v>0.22147651006711411</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -4562,7 +4660,7 @@
         <v>0.43624161073825501</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
@@ -4588,7 +4686,7 @@
         <v>0.21006711409395973</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -4614,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>21</v>
       </c>
@@ -4631,7 +4729,7 @@
         <v>2.9035532994923856</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>22</v>
       </c>
@@ -4648,12 +4746,12 @@
         <v>1.8274111675126903</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3">
         <v>2006</v>
@@ -4664,7 +4762,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
@@ -4677,7 +4775,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -4690,7 +4788,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>24</v>
       </c>
@@ -4703,7 +4801,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
@@ -4716,7 +4814,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>26</v>
       </c>
@@ -4729,7 +4827,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
@@ -4742,7 +4840,7 @@
         <v>-498625</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -4755,7 +4853,7 @@
         <v>31375</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
@@ -4768,7 +4866,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
@@ -4781,7 +4879,7 @@
         <v>43.04245283018868</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
@@ -4794,7 +4892,7 @@
         <v>9.4897045658012527</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>31</v>
       </c>
@@ -4807,7 +4905,7 @@
         <v>5.084870848708487</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>32</v>
       </c>
@@ -4820,12 +4918,12 @@
         <v>71.78156748911465</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -4833,7 +4931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>35</v>
       </c>
@@ -4841,7 +4939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>36</v>
       </c>
@@ -4849,7 +4947,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>37</v>
       </c>
@@ -4857,17 +4955,17 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="22">
         <v>2006</v>
@@ -4888,7 +4986,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>3</v>
       </c>
@@ -4911,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
@@ -4934,7 +5032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>40</v>
       </c>
@@ -4957,12 +5055,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4" t="s">
@@ -4975,7 +5073,7 @@
       </c>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="26">
         <v>2006</v>
@@ -4996,7 +5094,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>43</v>
       </c>
@@ -5019,7 +5117,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>44</v>
       </c>
@@ -5042,7 +5140,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>45</v>
       </c>
@@ -5065,7 +5163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>46</v>
       </c>
@@ -5088,7 +5186,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>47</v>
       </c>
@@ -5111,12 +5209,12 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="4" t="s">
         <v>49</v>
@@ -5134,7 +5232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>3</v>
       </c>
@@ -5154,7 +5252,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>4</v>
       </c>
@@ -5174,7 +5272,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>54</v>
       </c>
@@ -5194,12 +5292,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="4" t="s">
         <v>52</v>
@@ -5208,7 +5306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>57</v>
       </c>
@@ -5219,7 +5317,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>54</v>
       </c>
@@ -5230,7 +5328,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>58</v>
       </c>
@@ -5255,23 +5353,23 @@
       <selection activeCell="Q24" sqref="Q24:S56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="17:21" ht="16" x14ac:dyDescent="0.2">
       <c r="Q12" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="17:21" ht="16" x14ac:dyDescent="0.2">
       <c r="Q13" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="17:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="17:21" ht="17" x14ac:dyDescent="0.2">
       <c r="Q14" s="52" t="s">
         <v>224</v>
       </c>
@@ -5284,7 +5382,7 @@
       </c>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="17:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="17:21" ht="51" x14ac:dyDescent="0.2">
       <c r="Q15" s="52"/>
       <c r="R15" s="4" t="s">
         <v>219</v>
@@ -5299,7 +5397,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="17:21" ht="17" x14ac:dyDescent="0.2">
       <c r="Q16" s="4" t="s">
         <v>221</v>
       </c>
@@ -5316,7 +5414,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="17" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:21" ht="17" x14ac:dyDescent="0.2">
       <c r="Q17" s="4" t="s">
         <v>225</v>
       </c>
@@ -5333,7 +5431,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:21" ht="17" x14ac:dyDescent="0.2">
       <c r="Q18" s="4" t="s">
         <v>222</v>
       </c>
@@ -5350,7 +5448,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:21" ht="16" x14ac:dyDescent="0.2">
       <c r="Q19" s="2"/>
       <c r="R19" s="31">
         <v>8529</v>
@@ -5365,22 +5463,22 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="24" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:21" ht="16" x14ac:dyDescent="0.2">
       <c r="Q24" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:21" ht="16" x14ac:dyDescent="0.2">
       <c r="Q25" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:21" ht="16" x14ac:dyDescent="0.2">
       <c r="Q26" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="17:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:21" ht="17" x14ac:dyDescent="0.2">
       <c r="Q27" s="4" t="s">
         <v>229</v>
       </c>
@@ -5391,14 +5489,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:21" ht="17" x14ac:dyDescent="0.2">
       <c r="Q28" s="4" t="s">
         <v>231</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:21" ht="17" x14ac:dyDescent="0.2">
       <c r="Q29" s="4" t="s">
         <v>232</v>
       </c>
@@ -5409,7 +5507,7 @@
         <v>4594</v>
       </c>
     </row>
-    <row r="30" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:21" ht="17" x14ac:dyDescent="0.2">
       <c r="Q30" s="4" t="s">
         <v>6</v>
       </c>
@@ -5420,7 +5518,7 @@
         <v>-3484</v>
       </c>
     </row>
-    <row r="31" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:21" ht="17" x14ac:dyDescent="0.2">
       <c r="Q31" s="4" t="s">
         <v>25</v>
       </c>
@@ -5431,7 +5529,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="32" spans="17:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:21" ht="17" x14ac:dyDescent="0.2">
       <c r="Q32" s="4" t="s">
         <v>233</v>
       </c>
@@ -5442,7 +5540,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q33" s="4" t="s">
         <v>234</v>
       </c>
@@ -5453,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q34" s="4" t="s">
         <v>235</v>
       </c>
@@ -5464,7 +5562,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="35" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q35" s="4" t="s">
         <v>236</v>
       </c>
@@ -5475,7 +5573,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q36" s="4" t="s">
         <v>237</v>
       </c>
@@ -5486,7 +5584,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="37" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q37" s="4" t="s">
         <v>28</v>
       </c>
@@ -5497,7 +5595,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="38" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q38" s="4" t="s">
         <v>238</v>
       </c>
@@ -5508,14 +5606,14 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q39" s="4" t="s">
         <v>239</v>
       </c>
       <c r="R39" s="32"/>
       <c r="S39" s="32"/>
     </row>
-    <row r="40" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q40" s="4" t="s">
         <v>240</v>
       </c>
@@ -5526,7 +5624,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="41" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q41" s="4" t="s">
         <v>241</v>
       </c>
@@ -5537,7 +5635,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q42" s="4" t="s">
         <v>242</v>
       </c>
@@ -5548,7 +5646,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="43" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q43" s="4" t="s">
         <v>243</v>
       </c>
@@ -5559,7 +5657,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="44" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q44" s="4" t="s">
         <v>244</v>
       </c>
@@ -5570,7 +5668,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="45" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="17:19" ht="34" x14ac:dyDescent="0.2">
       <c r="Q45" s="4" t="s">
         <v>245</v>
       </c>
@@ -5581,7 +5679,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="46" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q46" s="4" t="s">
         <v>246</v>
       </c>
@@ -5592,7 +5690,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="47" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q47" s="4" t="s">
         <v>15</v>
       </c>
@@ -5603,7 +5701,7 @@
         <v>6657</v>
       </c>
     </row>
-    <row r="48" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q48" s="4" t="s">
         <v>247</v>
       </c>
@@ -5614,7 +5712,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="49" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q49" s="4" t="s">
         <v>248</v>
       </c>
@@ -5625,7 +5723,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="50" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q50" s="4" t="s">
         <v>249</v>
       </c>
@@ -5636,7 +5734,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="51" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q51" s="4" t="s">
         <v>250</v>
       </c>
@@ -5647,7 +5745,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="52" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="17:19" ht="34" x14ac:dyDescent="0.2">
       <c r="Q52" s="4" t="s">
         <v>251</v>
       </c>
@@ -5658,7 +5756,7 @@
         <v>6657</v>
       </c>
     </row>
-    <row r="53" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q53" s="4" t="s">
         <v>252</v>
       </c>
@@ -5669,14 +5767,14 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="54" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="17:19" ht="17" x14ac:dyDescent="0.2">
       <c r="Q54" s="4" t="s">
         <v>253</v>
       </c>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
     </row>
-    <row r="55" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="17:19" ht="34" x14ac:dyDescent="0.2">
       <c r="Q55" s="4" t="s">
         <v>254</v>
       </c>
@@ -5687,7 +5785,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="56" spans="17:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="17:19" ht="34" x14ac:dyDescent="0.2">
       <c r="Q56" s="4" t="s">
         <v>255</v>
       </c>
@@ -5714,18 +5812,18 @@
       <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="13:16" ht="16" x14ac:dyDescent="0.2">
       <c r="M14" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="13:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="13:16" ht="34" x14ac:dyDescent="0.2">
       <c r="M15" s="4" t="s">
         <v>257</v>
       </c>
@@ -5739,7 +5837,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="13:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M16" s="4" t="s">
         <v>261</v>
       </c>
@@ -5753,7 +5851,7 @@
         <v>14089</v>
       </c>
     </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M17" s="4" t="s">
         <v>262</v>
       </c>
@@ -5767,7 +5865,7 @@
         <v>8086</v>
       </c>
     </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M18" s="4" t="s">
         <v>263</v>
       </c>
@@ -5781,7 +5879,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="19" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:16" ht="34" x14ac:dyDescent="0.2">
       <c r="M19" s="4" t="s">
         <v>264</v>
       </c>
@@ -5795,7 +5893,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="20" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:16" ht="34" x14ac:dyDescent="0.2">
       <c r="M20" s="4" t="s">
         <v>265</v>
       </c>
@@ -5809,7 +5907,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="21" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:16" ht="34" x14ac:dyDescent="0.2">
       <c r="M21" s="4" t="s">
         <v>266</v>
       </c>
@@ -5823,7 +5921,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M22" s="4" t="s">
         <v>267</v>
       </c>
@@ -5837,7 +5935,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M23" s="4" t="s">
         <v>25</v>
       </c>
@@ -5851,7 +5949,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M24" s="4" t="s">
         <v>268</v>
       </c>
@@ -5865,7 +5963,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:16" ht="34" x14ac:dyDescent="0.2">
       <c r="M25" s="4" t="s">
         <v>269</v>
       </c>
@@ -5879,7 +5977,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="26" spans="13:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M26" s="4" t="s">
         <v>270</v>
       </c>
@@ -5893,7 +5991,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M27" s="4" t="s">
         <v>271</v>
       </c>
@@ -5907,12 +6005,12 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="37" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:15" ht="16" x14ac:dyDescent="0.2">
       <c r="M37" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="13:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:15" ht="51" x14ac:dyDescent="0.2">
       <c r="M38" s="4" t="s">
         <v>273</v>
       </c>
@@ -5923,21 +6021,21 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M39" s="4" t="s">
         <v>276</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M40" s="4" t="s">
         <v>277</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M41" s="4" t="s">
         <v>278</v>
       </c>
@@ -5948,7 +6046,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:15" ht="16" x14ac:dyDescent="0.2">
       <c r="M42" s="4" t="s">
         <v>279</v>
       </c>
@@ -5959,7 +6057,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="43" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M43" s="4" t="s">
         <v>280</v>
       </c>
@@ -5970,7 +6068,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="44" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M44" s="4" t="s">
         <v>281</v>
       </c>
@@ -5981,7 +6079,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="45" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M45" s="4" t="s">
         <v>282</v>
       </c>
@@ -5992,7 +6090,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M46" s="4" t="s">
         <v>283</v>
       </c>
@@ -6003,7 +6101,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="47" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:15" ht="34" x14ac:dyDescent="0.2">
       <c r="M47" s="4" t="s">
         <v>284</v>
       </c>
@@ -6014,7 +6112,7 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="48" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M48" s="4" t="s">
         <v>285</v>
       </c>
@@ -6025,7 +6123,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="49" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M49" s="4" t="s">
         <v>286</v>
       </c>
@@ -6036,7 +6134,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="50" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M50" s="4" t="s">
         <v>287</v>
       </c>
@@ -6047,21 +6145,21 @@
         <v>14212</v>
       </c>
     </row>
-    <row r="51" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="13:15" ht="34" x14ac:dyDescent="0.2">
       <c r="M51" s="4" t="s">
         <v>288</v>
       </c>
       <c r="N51" s="32"/>
       <c r="O51" s="32"/>
     </row>
-    <row r="52" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M52" s="4" t="s">
         <v>289</v>
       </c>
       <c r="N52" s="32"/>
       <c r="O52" s="32"/>
     </row>
-    <row r="53" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:15" ht="34" x14ac:dyDescent="0.2">
       <c r="M53" s="4" t="s">
         <v>290</v>
       </c>
@@ -6072,7 +6170,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="54" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M54" s="4" t="s">
         <v>291</v>
       </c>
@@ -6083,7 +6181,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="55" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:15" ht="34" x14ac:dyDescent="0.2">
       <c r="M55" s="4" t="s">
         <v>292</v>
       </c>
@@ -6094,7 +6192,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M56" s="4" t="s">
         <v>293</v>
       </c>
@@ -6105,7 +6203,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="57" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M57" s="4" t="s">
         <v>294</v>
       </c>
@@ -6116,7 +6214,7 @@
         <v>6215</v>
       </c>
     </row>
-    <row r="58" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="13:15" ht="34" x14ac:dyDescent="0.2">
       <c r="M58" s="4" t="s">
         <v>295</v>
       </c>
@@ -6127,7 +6225,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="59" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M59" s="4" t="s">
         <v>296</v>
       </c>
@@ -6138,7 +6236,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="60" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M60" s="4" t="s">
         <v>297</v>
       </c>
@@ -6149,7 +6247,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="61" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M61" s="4" t="s">
         <v>298</v>
       </c>
@@ -6160,21 +6258,21 @@
         <v>10784</v>
       </c>
     </row>
-    <row r="62" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M62" s="4" t="s">
         <v>299</v>
       </c>
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
     </row>
-    <row r="63" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="13:15" ht="34" x14ac:dyDescent="0.2">
       <c r="M63" s="4" t="s">
         <v>300</v>
       </c>
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
     </row>
-    <row r="64" spans="13:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="13:15" ht="136" x14ac:dyDescent="0.2">
       <c r="M64" s="4" t="s">
         <v>301</v>
       </c>
@@ -6185,7 +6283,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M65" s="4" t="s">
         <v>302</v>
       </c>
@@ -6196,7 +6294,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="66" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M66" s="4" t="s">
         <v>19</v>
       </c>
@@ -6207,7 +6305,7 @@
         <v>7869</v>
       </c>
     </row>
-    <row r="67" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="13:15" ht="34" x14ac:dyDescent="0.2">
       <c r="M67" s="4" t="s">
         <v>303</v>
       </c>
@@ -6218,7 +6316,7 @@
         <v>-482</v>
       </c>
     </row>
-    <row r="68" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="13:15" ht="16" x14ac:dyDescent="0.2">
       <c r="M68" s="2"/>
       <c r="N68" s="31">
         <v>8661</v>
@@ -6227,7 +6325,7 @@
         <v>9236</v>
       </c>
     </row>
-    <row r="69" spans="13:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="13:15" ht="68" x14ac:dyDescent="0.2">
       <c r="M69" s="4" t="s">
         <v>304</v>
       </c>
@@ -6238,7 +6336,7 @@
         <v>-5808</v>
       </c>
     </row>
-    <row r="70" spans="13:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="13:15" ht="17" x14ac:dyDescent="0.2">
       <c r="M70" s="4" t="s">
         <v>305</v>
       </c>
@@ -6249,7 +6347,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="71" spans="13:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="13:15" ht="34" x14ac:dyDescent="0.2">
       <c r="M71" s="4" t="s">
         <v>306</v>
       </c>
@@ -6273,29 +6371,29 @@
       <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N22" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N23" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="14:16" ht="16" x14ac:dyDescent="0.2">
       <c r="N24" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="14:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="14:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N25" s="4" t="s">
         <v>261</v>
       </c>
@@ -6304,7 +6402,7 @@
         <v>960000</v>
       </c>
     </row>
-    <row r="26" spans="14:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="14:16" ht="34" x14ac:dyDescent="0.2">
       <c r="N26" s="4" t="s">
         <v>309</v>
       </c>
@@ -6313,7 +6411,7 @@
         <v>-550000</v>
       </c>
     </row>
-    <row r="27" spans="14:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="14:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N27" s="4" t="s">
         <v>263</v>
       </c>
@@ -6322,7 +6420,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="28" spans="14:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="14:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N28" s="4" t="s">
         <v>310</v>
       </c>
@@ -6331,7 +6429,7 @@
       </c>
       <c r="P28" s="32"/>
     </row>
-    <row r="29" spans="14:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="14:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N29" s="4" t="s">
         <v>311</v>
       </c>
@@ -6342,7 +6440,7 @@
         <v>-190000</v>
       </c>
     </row>
-    <row r="30" spans="14:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="14:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N30" s="4" t="s">
         <v>312</v>
       </c>
@@ -6351,7 +6449,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="31" spans="14:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="14:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N31" s="4" t="s">
         <v>313</v>
       </c>
@@ -6360,7 +6458,7 @@
         <v>-105600</v>
       </c>
     </row>
-    <row r="32" spans="14:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="14:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N32" s="4" t="s">
         <v>314</v>
       </c>
@@ -6379,31 +6477,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D5D353-71B5-4702-B8B7-333384754704}">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+    <sheetView topLeftCell="A126" workbookViewId="0">
       <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6412,7 +6510,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>81</v>
       </c>
@@ -6429,7 +6527,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>77</v>
@@ -6450,7 +6548,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
@@ -6461,7 +6559,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>74</v>
       </c>
@@ -6472,7 +6570,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>73</v>
       </c>
@@ -6495,7 +6593,7 @@
         <v>242.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>72</v>
       </c>
@@ -6518,7 +6616,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="30"/>
       <c r="B10" s="29">
         <v>4263.8</v>
@@ -6539,7 +6637,7 @@
         <v>266.10000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>71</v>
       </c>
@@ -6550,7 +6648,7 @@
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -6573,7 +6671,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
@@ -6596,7 +6694,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="29">
         <v>788.4</v>
@@ -6617,7 +6715,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -6638,7 +6736,7 @@
         <v>-117.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
@@ -6655,7 +6753,7 @@
       </c>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
@@ -6672,7 +6770,7 @@
       </c>
       <c r="G17" s="28"/>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
@@ -6689,7 +6787,7 @@
         <v>213.6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>64</v>
       </c>
@@ -6706,7 +6804,7 @@
         <v>-31.3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
@@ -6723,7 +6821,7 @@
         <v>-55.8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
@@ -6740,7 +6838,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -6757,7 +6855,7 @@
         <v>-93.4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -6774,7 +6872,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -6791,7 +6889,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -6799,7 +6897,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="4" t="s">
         <v>85</v>
@@ -6811,7 +6909,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>88</v>
       </c>
@@ -6825,7 +6923,7 @@
         <v>5672.1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>89</v>
       </c>
@@ -6833,7 +6931,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>90</v>
       </c>
@@ -6847,7 +6945,7 @@
         <v>4001.6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -6861,7 +6959,7 @@
         <v>818.8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
@@ -6875,7 +6973,7 @@
         <v>252.1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>93</v>
       </c>
@@ -6889,7 +6987,7 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
@@ -6903,7 +7001,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>95</v>
       </c>
@@ -6917,7 +7015,7 @@
         <v>-38.299999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
@@ -6931,7 +7029,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
@@ -6945,7 +7043,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>98</v>
       </c>
@@ -6959,7 +7057,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>99</v>
       </c>
@@ -6973,7 +7071,7 @@
         <v>5570.7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>100</v>
       </c>
@@ -6987,7 +7085,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>101</v>
       </c>
@@ -7001,7 +7099,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>102</v>
       </c>
@@ -7015,7 +7113,7 @@
         <v>-5.3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>103</v>
       </c>
@@ -7029,7 +7127,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>104</v>
       </c>
@@ -7043,7 +7141,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>105</v>
       </c>
@@ -7057,7 +7155,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>106</v>
       </c>
@@ -7071,7 +7169,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>107</v>
       </c>
@@ -7085,7 +7183,7 @@
         <v>129.30000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>108</v>
       </c>
@@ -7096,14 +7194,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>112</v>
       </c>
@@ -7114,7 +7212,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>113</v>
       </c>
@@ -7125,7 +7223,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>114</v>
       </c>
@@ -7136,7 +7234,7 @@
         <v>624.5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>115</v>
       </c>
@@ -7147,7 +7245,7 @@
         <v>819.8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>116</v>
       </c>
@@ -7158,7 +7256,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="34" t="s">
         <v>117</v>
       </c>
@@ -7169,7 +7267,7 @@
         <v>1665.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>118</v>
       </c>
@@ -7180,7 +7278,7 @@
         <v>1717.7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>119</v>
       </c>
@@ -7191,7 +7289,7 @@
         <v>383.4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>120</v>
       </c>
@@ -7202,7 +7300,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>121</v>
       </c>
@@ -7213,14 +7311,14 @@
         <v>54115.6</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>123</v>
       </c>
@@ -7231,7 +7329,7 @@
         <v>202.3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>124</v>
       </c>
@@ -7242,7 +7340,7 @@
         <v>525.20000000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>125</v>
       </c>
@@ -7253,7 +7351,7 @@
         <v>491.9</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>126</v>
       </c>
@@ -7264,7 +7362,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>127</v>
       </c>
@@ -7275,7 +7373,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>128</v>
       </c>
@@ -7286,7 +7384,7 @@
         <v>1298.0999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>129</v>
       </c>
@@ -7297,7 +7395,7 @@
         <v>805.8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>130</v>
       </c>
@@ -7308,21 +7406,21 @@
         <v>319.89999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
     </row>
-    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B75" s="31"/>
       <c r="C75" s="32"/>
     </row>
-    <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>133</v>
       </c>
@@ -7333,7 +7431,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>134</v>
       </c>
@@ -7344,7 +7442,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>135</v>
       </c>
@@ -7355,7 +7453,7 @@
         <v>1653.3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>136</v>
       </c>
@@ -7366,7 +7464,7 @@
         <v>-107.2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>137</v>
       </c>
@@ -7377,7 +7475,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>138</v>
       </c>
@@ -7388,7 +7486,7 @@
         <v>1691.8</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>139</v>
       </c>
@@ -7399,7 +7497,7 @@
         <v>4115.6000000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>140</v>
       </c>
@@ -7407,7 +7505,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>141</v>
       </c>
@@ -7421,7 +7519,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>143</v>
       </c>
@@ -7429,7 +7527,7 @@
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>105</v>
       </c>
@@ -7443,7 +7541,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>144</v>
       </c>
@@ -7451,7 +7549,7 @@
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>145</v>
       </c>
@@ -7465,7 +7563,7 @@
         <v>192.3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>146</v>
       </c>
@@ -7477,7 +7575,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>147</v>
       </c>
@@ -7491,7 +7589,7 @@
         <v>-67.8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>148</v>
       </c>
@@ -7505,7 +7603,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>149</v>
       </c>
@@ -7519,7 +7617,7 @@
         <v>-46.8</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>150</v>
       </c>
@@ -7533,7 +7631,7 @@
         <v>-113.2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>151</v>
       </c>
@@ -7547,7 +7645,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>152</v>
       </c>
@@ -7561,7 +7659,7 @@
         <v>357.3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>153</v>
       </c>
@@ -7569,7 +7667,7 @@
       <c r="C98" s="32"/>
       <c r="D98" s="32"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>154</v>
       </c>
@@ -7583,7 +7681,7 @@
         <v>-284.10000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>155</v>
       </c>
@@ -7597,7 +7695,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>156</v>
       </c>
@@ -7611,7 +7709,7 @@
         <v>-135.80000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>157</v>
       </c>
@@ -7625,7 +7723,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>158</v>
       </c>
@@ -7639,7 +7737,7 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>159</v>
       </c>
@@ -7653,7 +7751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>160</v>
       </c>
@@ -7667,7 +7765,7 @@
         <v>-473.2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>161</v>
       </c>
@@ -7675,7 +7773,7 @@
       <c r="C106" s="32"/>
       <c r="D106" s="32"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>162</v>
       </c>
@@ -7689,7 +7787,7 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>163</v>
       </c>
@@ -7703,7 +7801,7 @@
         <v>-53.6</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>164</v>
       </c>
@@ -7717,7 +7815,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>165</v>
       </c>
@@ -7731,7 +7829,7 @@
         <v>227.1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>166</v>
       </c>
@@ -7745,7 +7843,7 @@
         <v>-192.3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>167</v>
       </c>
@@ -7759,7 +7857,7 @@
         <v>-86.7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>168</v>
       </c>
@@ -7773,7 +7871,7 @@
         <v>-8.1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>169</v>
       </c>
@@ -7787,7 +7885,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>148</v>
       </c>
@@ -7801,7 +7899,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>170</v>
       </c>
@@ -7815,7 +7913,7 @@
         <v>163.1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>171</v>
       </c>
@@ -7829,7 +7927,7 @@
         <v>-12.1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>172</v>
       </c>
@@ -7843,7 +7941,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>173</v>
       </c>
@@ -7857,7 +7955,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>174</v>
       </c>
@@ -7871,8 +7969,8 @@
         <v>120.9</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A123" s="35" t="s">
         <v>175</v>
       </c>
@@ -7898,7 +7996,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="38" t="s">
         <v>183</v>
       </c>
@@ -7922,7 +8020,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="38" t="s">
         <v>184</v>
       </c>
@@ -7938,7 +8036,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="38" t="s">
         <v>185</v>
       </c>
@@ -7954,7 +8052,7 @@
         <v>-116.4</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="38" t="s">
         <v>186</v>
       </c>
@@ -7970,7 +8068,7 @@
         <v>-8.1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="38" t="s">
         <v>187</v>
       </c>
@@ -7982,7 +8080,7 @@
       <c r="G128" s="43"/>
       <c r="H128" s="44"/>
     </row>
-    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="38" t="s">
         <v>188</v>
       </c>
@@ -8000,7 +8098,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="38" t="s">
         <v>189</v>
       </c>
@@ -8016,7 +8114,7 @@
         <v>-26.4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="38" t="s">
         <v>190</v>
       </c>
@@ -8040,7 +8138,7 @@
         <v>1778.3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="38" t="s">
         <v>191</v>
       </c>
@@ -8056,7 +8154,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="38" t="s">
         <v>192</v>
       </c>
@@ -8072,7 +8170,7 @@
         <v>-126.9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="38" t="s">
         <v>193</v>
       </c>
@@ -8088,7 +8186,7 @@
         <v>-41.1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="38" t="s">
         <v>194</v>
       </c>
@@ -8100,7 +8198,7 @@
       <c r="G135" s="43"/>
       <c r="H135" s="44"/>
     </row>
-    <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="38" t="s">
         <v>195</v>
       </c>
@@ -8118,7 +8216,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="38" t="s">
         <v>189</v>
       </c>
@@ -8134,7 +8232,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="38" t="s">
         <v>196</v>
       </c>
@@ -8158,7 +8256,7 @@
         <v>1691.8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="38" t="s">
         <v>197</v>
       </c>
@@ -8174,7 +8272,7 @@
         <v>401.5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="38" t="s">
         <v>198</v>
       </c>
@@ -8186,7 +8284,7 @@
       <c r="G140" s="43"/>
       <c r="H140" s="44"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="38" t="s">
         <v>199</v>
       </c>
@@ -8202,7 +8300,7 @@
         <v>-142.19999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="38" t="s">
         <v>186</v>
       </c>
@@ -8218,7 +8316,7 @@
         <v>-175.6</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="38" t="s">
         <v>194</v>
       </c>
@@ -8230,7 +8328,7 @@
       <c r="G143" s="43"/>
       <c r="H143" s="44"/>
     </row>
-    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="38" t="s">
         <v>200</v>
       </c>
@@ -8248,7 +8346,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="38" t="s">
         <v>189</v>
       </c>
@@ -8264,7 +8362,7 @@
         <v>-29.9</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="38" t="s">
         <v>201</v>
       </c>
@@ -8280,7 +8378,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="39" t="s">
         <v>202</v>
       </c>
@@ -8304,8 +8402,8 @@
         <v>1793.4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="40" t="s">
         <v>203</v>
       </c>
@@ -8313,7 +8411,7 @@
       <c r="C149" s="41"/>
       <c r="D149" s="42"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="38" t="s">
         <v>204</v>
       </c>
@@ -8327,7 +8425,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="38" t="s">
         <v>208</v>
       </c>
@@ -8341,7 +8439,7 @@
         <v>6584.1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="38" t="s">
         <v>186</v>
       </c>
@@ -8353,7 +8451,7 @@
         <v>250.6</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="38" t="s">
         <v>210</v>
       </c>
@@ -8365,7 +8463,7 @@
         <v>-790.6</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="38" t="s">
         <v>211</v>
       </c>
@@ -8379,7 +8477,7 @@
         <v>6044.1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="38" t="s">
         <v>186</v>
       </c>
@@ -8391,7 +8489,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="38" t="s">
         <v>212</v>
       </c>
@@ -8403,7 +8501,7 @@
         <v>-523</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="38" t="s">
         <v>196</v>
       </c>
@@ -8417,7 +8515,7 @@
         <v>6353.7</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="38" t="s">
         <v>213</v>
       </c>
@@ -8429,7 +8527,7 @@
         <v>3395.4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="38" t="s">
         <v>214</v>
       </c>
@@ -8441,7 +8539,7 @@
         <v>-1130.2</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="39" t="s">
         <v>215</v>
       </c>
@@ -8461,4 +8559,19 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD0C3DB-A783-0640-B748-DE28F4049DC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L12" sqref="A1:L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>